--- a/Instances/K0011153_NonStationary_b2_fe25_en_rk25_ll0_l20_HTrue_c0.xlsx
+++ b/Instances/K0011153_NonStationary_b2_fe25_en_rk25_ll0_l20_HTrue_c0.xlsx
@@ -1004,7 +1004,7 @@
         <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>18.36668872833252</v>
+        <v>18.61615705490112</v>
       </c>
       <c r="I2" t="n">
         <v>200</v>
@@ -1462,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1602,7 +1602,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15.9375</v>
+        <v>20.25</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>25.078125</v>
+        <v>25.3125</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>23.37890625</v>
+        <v>26.82421875</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -2073,7 +2073,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>24.1552734375</v>
+        <v>23.408203125</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24.9755859375</v>
+        <v>28.9716796875</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>26.4935302734375</v>
+        <v>18.74542236328125</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>25.24845886230469</v>
+        <v>23.99853515625</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19.99969482421875</v>
+        <v>26.49959564208984</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>24.49990653991699</v>
+        <v>23.49991035461426</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>28.99997234344482</v>
+        <v>24.49997663497925</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>

--- a/Instances/K0011153_NonStationary_b2_fe25_en_rk25_ll0_l20_HTrue_c0.xlsx
+++ b/Instances/K0011153_NonStationary_b2_fe25_en_rk25_ll0_l20_HTrue_c0.xlsx
@@ -1004,7 +1004,7 @@
         <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>18.61615705490112</v>
+        <v>18.09286649410541</v>
       </c>
       <c r="I2" t="n">
         <v>200</v>
@@ -1462,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1602,7 +1602,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20.25</v>
+        <v>17.625</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>25.3125</v>
+        <v>24.84375</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>26.82421875</v>
+        <v>23.625</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -2073,7 +2073,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23.408203125</v>
+        <v>26.6455078125</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28.9716796875</v>
+        <v>24.9755859375</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>18.74542236328125</v>
+        <v>23.994140625</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23.99853515625</v>
+        <v>21.24870300292969</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>26.49959564208984</v>
+        <v>19.74969863891602</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>23.49991035461426</v>
+        <v>24.99990463256836</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>24.49997663497925</v>
+        <v>27.4999737739563</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
